--- a/Table 3.xlsx
+++ b/Table 3.xlsx
@@ -61,9 +61,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>sp. nov.</t>
     </r>
@@ -73,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +101,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,15 +183,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -537,7 +547,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:Y25"/>
+      <selection activeCell="C8" sqref="A1:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -547,1096 +557,1372 @@
     <col min="3" max="25" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="7" customFormat="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5">
+    <row r="1" spans="1:25" s="2" customFormat="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <v>9</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="3">
         <v>10</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <v>11</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="3">
         <v>12</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="3">
         <v>13</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <v>14</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="3">
         <v>15</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="3">
         <v>16</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="3">
         <v>17</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="3">
         <v>18</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="3">
         <v>19</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="3">
         <v>20</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="3">
         <v>21</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="3">
         <v>22</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.158</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.155</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.155</v>
       </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.159</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.156</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.154</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>0.154</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>0.154</v>
       </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>0.152</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>0.155</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>1E-3</v>
       </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.156</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>0.152</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>0.155</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>0.152</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>0.151</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>0.158</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>0.154</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>0.158</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>0.105</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>0.105</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>0.106</v>
       </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>0.151</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>0.15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.156</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>0.155</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>0.156</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>0.105</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.16</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>0.128</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>0.127</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>0.126</v>
       </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>0.16</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>0.128</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>0.127</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.126</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>0</v>
       </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>0.156</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>0.155</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>0.123</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>0.16</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>0.159</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>0.127</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>0.17399999999999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>0.151</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="5">
         <v>0.114</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="5">
         <v>0.114</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="5">
         <v>0.106</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="5">
         <v>0.109</v>
       </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>0.17399999999999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>0.151</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="5">
         <v>0.114</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="5">
         <v>0.114</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="5">
         <v>0.106</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="5">
         <v>0.109</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="5">
         <v>0</v>
       </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.158</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>0.159</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>0.159</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.158</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>0.16</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>0.16</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="5">
         <v>1E-3</v>
       </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.15</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>0.123</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="5">
         <v>0.09</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>0.152</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>0.17</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>0.107</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>0.107</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="5">
         <v>0.105</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="5">
         <v>0.105</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>0.16</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>0.184</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>0.14699999999999999</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <v>0.105</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="5">
         <v>0.105</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>0.159</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>0.16</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>0.18099999999999999</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <v>0.105</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>0.105</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="5">
         <v>0.09</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>0.16300000000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>0.184</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="5">
         <v>0.106</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="5">
         <v>0.105</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="5">
         <v>0.10100000000000001</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="5">
         <v>0.10299999999999999</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="5">
         <v>1.9E-2</v>
       </c>
+      <c r="Y24" s="5"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>0.154</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>0.155</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="7">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="7">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="7">
         <v>0.127</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="7">
         <v>0.127</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="7">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="7">
         <v>0.13400000000000001</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="7">
         <v>0.13200000000000001</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="7">
         <v>0.107</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="7">
         <v>0.107</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="7">
         <v>0.10100000000000001</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="7">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="7">
         <v>0.09</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="7">
         <v>0.09</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="7">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="7">
         <v>1.9E-2</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
